--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1578.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1578.xlsx
@@ -351,13 +351,13 @@
         <v>1.038909451606986</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.085996522724948</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1578.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1578.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.038909451606986</v>
+        <v>0.6425934433937073</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>0.7231345176696777</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>0.8819990158081055</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.662474393844604</v>
       </c>
       <c r="E1">
-        <v>1.085996522724948</v>
+        <v>5.366727352142334</v>
       </c>
     </row>
   </sheetData>
